--- a/dat/climate/kingspark_climate.xlsx
+++ b/dat/climate/kingspark_climate.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiling\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirunesh\Documents\dengue-forecast-hk\dat\climate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1656A67-CE63-4D2B-AB42-6C697B65F2AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" xr2:uid="{0951EFFC-BB1A-4B16-9FBC-28239447B0C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -238,8 +237,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{9DE8006C-A162-4008-AB6A-652E828488AC}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,16 +549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B86BA9-4A6E-4D32-B7C8-D91AAFFCD333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="13" width="10.58203125" customWidth="1"/>
+    <col min="1" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
